--- a/Blog用/ボードゲームプラネット/Excel/ボドゲ動画台本（仮）.xlsx
+++ b/Blog用/ボードゲームプラネット/Excel/ボドゲ動画台本（仮）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwataf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwataf\Documents\Study\Blog用\ボードゲームプラネット\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1CDD30-CE8D-4669-937F-75C0275894A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD487CC4-1E47-4A0B-96FF-8864C78D4635}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{27B983AD-0940-4EAB-AA22-074E6BFADCB7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>映像内容</t>
     <rPh sb="0" eb="2">
@@ -398,310 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ロゴムービーまたはテロップ
-（BGMを流しフェードしながら本編）
-（進行係）さぁ始まりました。ボードゲームプラネット！この番組は、世界に眠る色々なボードゲームを紹介していく番組です！
-（進行役の〇〇です、等各々自己紹介を入れる）
-～オープニングフリートーク～
-（アシスタント）進行さん、今日は何のゲームをやるんですか？
-（進行）今日は【ゲームタイトル】をやりたいと思います！
-（アシスタント）おぉ～！（リアクションを取る）
-〇〇ってどんなゲームなんですか？
-（進行）
-１）ゲーム発祥地（分かるのであれば
-２）ゲームテーマ、ジャンル
-３）遊び方説明
-等一通り説明する
-（進行）では、実際にプレイしてみましょう！
-</t>
-    <rPh sb="19" eb="20">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホンペン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ガカリ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セカイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ネム</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>バングミ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>オノオノ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="243" eb="246">
-      <t>ハッショウチ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="272" eb="273">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="275" eb="277">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="279" eb="281">
-      <t>ヒトトオ</t>
-    </rPh>
-    <rPh sb="282" eb="284">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="288" eb="290">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="294" eb="296">
-      <t>ジッサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演者は全員フリートーク
-１）どう動かそうかなー
-２）やばい！
-等、状況に合わせて適宜リアクションを取る
-進行が居ない場合解説後乗せ
-進行が居る場合状況解説しつつ演者に話を振るスタイルがベスト
-見どころやミスをしたポイント等にテロップや編集切り貼りで強調させる予定なので失敗したなと思ったり、勝負に出るタイミングなどで少し大げさにリアクションをしてほしい
-サクッと終わる軽ゲーならやりながら説明して何戦かやるのもあり
-勝敗が決まったら
-（進行）〇〇さんの勝利ー！
-（拍手）SEも入れる</t>
-    <rPh sb="0" eb="2">
-      <t>エンジャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テキギ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>エンジャ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ハナシ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>キョウチョウ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ショウブ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>カル</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>ナンセン</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>ショウハイ</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ハクシュ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演者全員で撮影
-ご視聴ありがとうございました！
-もしよろしければチャンネル登録よろしくお願いします！
-パソコンの方は登録ボタン、スマホの方は概要欄からチャンネル登録よろしくお願いします！</t>
-    <rPh sb="0" eb="2">
-      <t>エンジャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>専用BGMを流す
 画面に登録ボタンを出す</t>
     <rPh sb="0" eb="2">
@@ -734,78 +430,818 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（進行）〇〇さんの勝利ということで一通りプレイを終えましたがどうでしたか〇〇さん！
-1人ずつ感想を交えて喋っていく
-～感想終えて～
-（進行）というわけで今回は〇〇というゲームを紹介させていただきました！
-気になったら皆さんも是非遊んでみてください！
-また次回の動画もお楽しみに！
-（全員）ばいばーい、みてねー等</t>
-    <rPh sb="1" eb="3">
+    <t>～シーン切替用ムービー差し込み～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">進）ルールを説明しますね。ガイスターはお互いいいオバケのコマを4つ、悪いオバケのコマ4つを持っていて
+自分のいいオバケのコマが相手のマスの角から外に出ていくか
+進）相手に自分の悪いオバケのコマ4つを取らせるか相手のいいオバケのコマを全部取ったら勝ちになります。
+ア）ほぉ、なるほど。
+進）コマの移動方法は上下左右のどこか１マス、斜めに移動とパスはできないので気を付けてくださいね。
+ア）ちなみにどうすると相手のコマが取れるんですか？
+進）相手のコマと自分のコマが隣り合うマスにいる時相手のコマが居る方向へ進むと取ることができます。チェスや将棋みたいな感じのイメージでOKです。
+ア）なるほど、分かりやすい。
+進）相手からは自分のコマがいいオバケなのか悪いオバケなのか見えないようになっているので
+うまく相手にばれない様にコマを進めていくことが大事になっていきます。
+ア）だから心理戦なんですね！私すぐに顔に出ちゃうタイプだから気を付けないと…
+進）わざと顔に出すっていうのも手かもしれませんよ(笑)とりあえず細かいところはやりながら覚えるとして早速ですけどやっていきましょうか！
+ア）分かりました！
+進）では準備しちゃいましょう！
+</t>
+    <rPh sb="0" eb="1">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カド</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="306" eb="308">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="311" eb="313">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="325" eb="326">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="351" eb="353">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="358" eb="359">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="363" eb="364">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="371" eb="373">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="388" eb="390">
+      <t>シンリ</t>
+    </rPh>
+    <rPh sb="390" eb="391">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="397" eb="398">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="401" eb="402">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="403" eb="404">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="415" eb="416">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="427" eb="428">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="439" eb="441">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ロゴムービーまたはテロップ
+（BGMを流しフェードしながら本編）
+（進行係）さぁ始まりました。ボードゲームプラネット！この番組は、世界に眠る色々なボードゲームを紹介していく番組です！
+進）進行役の〇〇です！
+ア）アシスタントの〇〇です！
+ア）進行さん、今日は何のゲームをやるんですか？
+進）今日はガイスターをやりたいと思いま～す！（箱を出しながら）
+ア）おぉ～！（拍手）ちなみにガイスターってどんなゲームなんですか？
+進）ガイスターはドイツ発祥の幽霊をモチーフにしたボードゲームで、心理的要素の強い対戦型ボードゲームらしいです！
+ガイスターってドイツ語で幽霊って言うらしいですよ。アシスタントさんは幽霊って信じてますか？
+ア）そうですね、私は実際に見たことはないですけどやっぱり見えるっていう人たちがいるんだからいるんじゃないかなと思ってます！ちなみに進行さんはどうなんですか？
+進）私は自分の目で見ないと信用できないタイプなのでいない派ですね！後はほら、見えないのにいるって思うと怖いじゃないですか(笑)
+ア）確かに(笑)でも幽霊が全員悪い幽霊とは限らないかもしれませんよ？
+進）お、今いいこと言いましたね。実はこのゲームこのコマの色でいいオバケと悪いオバケ分かれてるらしいです。
+</t>
+    <rPh sb="19" eb="20">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホンペン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>シンコウ</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="37" eb="38">
+      <t>ガカリ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ネム</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バングミ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ハクシュ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ハッショウ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="243" eb="246">
+      <t>シンリテキ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="251" eb="254">
+      <t>タイセンガタ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="279" eb="281">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="305" eb="306">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="321" eb="322">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="341" eb="342">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="378" eb="380">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="394" eb="395">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="396" eb="398">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="399" eb="400">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="401" eb="402">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>シンヨウ</t>
+    </rPh>
+    <rPh sb="420" eb="421">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="425" eb="426">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="440" eb="441">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="452" eb="455">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="458" eb="459">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="461" eb="464">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="466" eb="468">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="469" eb="471">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="471" eb="472">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="473" eb="475">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="477" eb="478">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進）はい、というわけで準備ができました。こんな感じになってま～す。（両手でボードを指す）
+ア）幽霊っていうぐらいだからもうちょっと怖い雰囲気を想像してましたけど可愛い見た目ですね
+進）そうですね、これぐらい可愛いオバケなら出てきても怖くないのでアリですね(笑)
+じゃあとりあえず先攻後攻決めましょう。
+二人）最初はグージャンケンポン（じゃんけんをする）
+負け）あ～負けちゃった～。勝ちさん先攻後攻どっちがいいですか？
+勝ち）ん～そうだなぁー…じゃあ先攻で！
+負け）分かりました、私後攻ですね。
+進）はい、ではやっていきましょう！
+～プレイスタート～
+ア）これってこうでいいんですか？（好きな方向にひとマス進ませながら）
+進）そうですね、大丈夫です。じゃあ私はこれをこうで
+ア）どれにしようかなぁー…、じゃあ次はこれで
+コマが隣り合うまで上の感じで喋っていく
+</t>
+    <rPh sb="47" eb="49">
+      <t>ユウレイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カワイ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>カワイ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">～アシスタント側に先にコマを取らせるタイミングを作る～
+ア）こうなった時にこっちに進むと相手のコマが取れるんでしたっけ？
+進）そうです！ただ悪いオバケだとアシスタントさんが不利になるので考えて取らないといけませんよ(笑)
+ア）あーそうかぁ…（悩むふりをしながら）まぁいいやとっちゃえ！
+青だった場合：やったー！青だー！
+進）うわーしまった取られちゃったー…
+赤だった場合：うわー赤だ…残念…
+進）だから言ったのにー(笑)
+～コマを取った後～
+進）こんな感じでドンドン相手の悪いオバケのコマを取るか相手のいいオバケのコマを全部取るか後はここですね（隅を指さしながら）、ここに自分のいいオバケのコマが来ると勝ちです。
+ア）なるほどールールはシンプルで分かりやすい！けど相手のコマがどれかわからないのが難しいなー…
+その後取ったり取られたりした時は色に合わせてコマを取らせたときのようなセリフを言う
+～ゲーム中盤お互いコマを４つずつ取った辺り～
+進）このゲームはあれですね、何回もやると動かし方の癖とかわかってきそうですね(笑)
+ア）確かに(笑)、でも気持ちが通じ合ってるみたいでいいんじゃないですか？
+進）それでも勝負は勝負ですからね、手は抜きませんよ！
+ア）やだー怖い！（泣）
+</t>
+    <rPh sb="401" eb="403">
+      <t>チュウバン</t>
+    </rPh>
+    <rPh sb="404" eb="405">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="440" eb="441">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="445" eb="446">
+      <t>クセ</t>
+    </rPh>
+    <rPh sb="458" eb="461">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="464" eb="465">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="467" eb="470">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="473" eb="475">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="477" eb="478">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="479" eb="480">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="505" eb="507">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="508" eb="510">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="516" eb="517">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="518" eb="519">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="531" eb="532">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="535" eb="536">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～どちらかがいいオバケ、悪いオバケの数が残り１個になったあたり～
+アシスタントのいいオバケが残り１の場合
+ア）やばいー！次いいオバケ取られたら負けちゃう！
+進）ふふふ、いいオバケ取っちゃいますよー！
+ア）ダメです！やめてください！
+進）やめたら勝てないじゃないですか(笑)、まぁほらアシスタントさんが私のいいオバケのコマを先に全部取るかここに来たら勝ちですから。
+ア）やるしかない、頑張るぞー！
+進行のいいオバケが残り１の場合
+ア）やった、後１個進行さんのいいオバケ取ったら勝ちだ！
+進）まずいなー、次取られたら負けちゃう…
+ア）絶対勝ちますからねー！
+進）私だって負けませんよ、ここから逆転だって十分あり得ますからね。
+～勝敗が決まったら～
+負け）あー負けた～！！（テーブルにうなだれる）
+勝ち）やったー勝ったー！！（バンザイ）
+ア）負けちゃったけど面白いですね！orなんとか勝てました～いぇーい（ピース）
+進）なかなか白熱した戦いでしたね(笑)
+勝てるかと思ってたけど油断しちゃいましたor負けるかと思ってヒヤヒヤしましたね(笑)
+ということで一通りプレイを終えたのでエンディングいきましょうー！</t>
+    <rPh sb="12" eb="13">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="294" eb="296">
+      <t>ギャクテン</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="303" eb="304">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="315" eb="316">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="322" eb="323">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="327" eb="328">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="346" eb="347">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="376" eb="378">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="411" eb="413">
+      <t>ハクネツ</t>
+    </rPh>
+    <rPh sb="415" eb="416">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="421" eb="424">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="425" eb="426">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="436" eb="438">
+      <t>ユダン</t>
+    </rPh>
+    <rPh sb="447" eb="448">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="464" eb="467">
+      <t>ワライ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>ヒトトオ</t>
+    </rPh>
+    <rPh sb="481" eb="482">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進）はい、では私orアシスタントさんの勝利で終わりましたがやってみてどうでしたかアシスタントさん！
+ア）はい、ゲーム性自体はシンプルで分かりやすくてよかったなと思いました！相手の心理を読むあたりなんかは苦労しましたけど…（苦笑）、後は見た目がちょっと可愛めなところが私的にはポイント高かったですね！小さいお子さんでも遊べそうでよかったなと思います！
+進）ありがとうございます！、というわけで今回はガイスターというゲームを紹介させていただきました！ゲーム性は非常にシンプル、だけど奥が深い！ここがガイスターのポイントかなと思います。気になったら皆さんも是非遊んでみてください！
+今回の動画はここまでとなります！また次回の動画もお楽しみに！
+二人）ばいばーい（手を振る）</t>
+    <rPh sb="7" eb="8">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>ショウリ</t>
     </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒトトオ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="22" eb="23">
       <t>オ</t>
     </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>マジ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>シャベ</t>
+    <rPh sb="58" eb="59">
+      <t>セイ</t>
     </rPh>
     <rPh sb="59" eb="61">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シンリ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>クロウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ニガワラ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>カワイ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
       <t>コンカイ</t>
     </rPh>
-    <rPh sb="88" eb="90">
+    <rPh sb="210" eb="212">
       <t>ショウカイ</t>
     </rPh>
-    <rPh sb="102" eb="103">
+    <rPh sb="226" eb="227">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
       <t>キ</t>
     </rPh>
-    <rPh sb="108" eb="109">
+    <rPh sb="271" eb="272">
       <t>ミナ</t>
     </rPh>
-    <rPh sb="112" eb="114">
+    <rPh sb="275" eb="277">
       <t>ゼヒ</t>
     </rPh>
-    <rPh sb="114" eb="115">
+    <rPh sb="277" eb="278">
       <t>アソ</t>
     </rPh>
-    <rPh sb="127" eb="129">
+    <rPh sb="288" eb="290">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="306" eb="308">
       <t>ジカイ</t>
     </rPh>
-    <rPh sb="130" eb="132">
+    <rPh sb="309" eb="311">
       <t>ドウガ</t>
     </rPh>
-    <rPh sb="134" eb="135">
+    <rPh sb="313" eb="314">
       <t>タノ</t>
     </rPh>
-    <rPh sb="141" eb="143">
+    <rPh sb="319" eb="321">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="328" eb="329">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演者全員で撮影
+進）最後までご視聴ありがとうございました！
+もしよろしければチャンネル登録よろしくお願いします！
+ア）パソコンの方は登録ボタン、スマホの方は概要欄から登録よろしくお願いします！
+次の動画もまた見てくださいねー！
+二人）ばいばーい（手を振る）</t>
+    <rPh sb="0" eb="2">
+      <t>エンジャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ゼンイン</t>
     </rPh>
-    <rPh sb="154" eb="155">
-      <t>トウ</t>
+    <rPh sb="5" eb="7">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -839,7 +1275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -963,13 +1399,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,6 +1483,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,17 +1828,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="51.875" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="83.5" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1372,146 +1868,170 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="364.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="17"/>
+      <c r="C5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="2:5" ht="267" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="18"/>
+      <c r="C8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="192.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" ht="280.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="176.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+    <row r="13" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="12"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="12"/>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C22" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Blog用/ボードゲームプラネット/Excel/ボドゲ動画台本（仮）.xlsx
+++ b/Blog用/ボードゲームプラネット/Excel/ボドゲ動画台本（仮）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwataf\Documents\Study\Blog用\ボードゲームプラネット\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD487CC4-1E47-4A0B-96FF-8864C78D4635}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457883E5-0AAF-4354-991E-88657CF5EAD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{27B983AD-0940-4EAB-AA22-074E6BFADCB7}"/>
   </bookViews>
@@ -1493,9 +1493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1509,6 +1506,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1830,8 +1830,8 @@
   </sheetPr>
   <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1883,24 +1883,24 @@
     </row>
     <row r="5" spans="2:5" ht="364.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" ht="267" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1913,17 +1913,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="18"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="15"/>
@@ -2032,6 +2032,6 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>